--- a/datasheets/multiset/recursions_ms_graph_2.xlsx
+++ b/datasheets/multiset/recursions_ms_graph_2.xlsx
@@ -2125,7 +2125,7 @@
       <c r="B152" t="inlineStr"/>
       <c r="C152" t="inlineStr"/>
       <c r="D152" t="n">
-        <v>8197</v>
+        <v>8192</v>
       </c>
       <c r="E152" t="inlineStr"/>
       <c r="F152" t="inlineStr"/>
@@ -2136,7 +2136,7 @@
       <c r="B153" t="inlineStr"/>
       <c r="C153" t="inlineStr"/>
       <c r="D153" t="n">
-        <v>8195</v>
+        <v>8192</v>
       </c>
       <c r="E153" t="inlineStr"/>
       <c r="F153" t="inlineStr"/>
@@ -2147,7 +2147,7 @@
       <c r="B154" t="inlineStr"/>
       <c r="C154" t="inlineStr"/>
       <c r="D154" t="n">
-        <v>8200</v>
+        <v>8192</v>
       </c>
       <c r="E154" t="inlineStr"/>
       <c r="F154" t="inlineStr"/>
@@ -2158,7 +2158,7 @@
       <c r="B155" t="inlineStr"/>
       <c r="C155" t="inlineStr"/>
       <c r="D155" t="n">
-        <v>8199</v>
+        <v>7672</v>
       </c>
       <c r="E155" t="inlineStr"/>
       <c r="F155" t="inlineStr"/>
@@ -2191,7 +2191,7 @@
       <c r="B158" t="inlineStr"/>
       <c r="C158" t="inlineStr"/>
       <c r="D158" t="n">
-        <v>8076</v>
+        <v>8192</v>
       </c>
       <c r="E158" t="inlineStr"/>
       <c r="F158" t="inlineStr"/>
@@ -2202,7 +2202,7 @@
       <c r="B159" t="inlineStr"/>
       <c r="C159" t="inlineStr"/>
       <c r="D159" t="n">
-        <v>8203</v>
+        <v>8192</v>
       </c>
       <c r="E159" t="inlineStr"/>
       <c r="F159" t="inlineStr"/>
@@ -2224,7 +2224,7 @@
       <c r="B161" t="inlineStr"/>
       <c r="C161" t="inlineStr"/>
       <c r="D161" t="n">
-        <v>7676</v>
+        <v>8192</v>
       </c>
       <c r="E161" t="inlineStr"/>
       <c r="F161" t="inlineStr"/>
@@ -2246,7 +2246,7 @@
       <c r="B163" t="inlineStr"/>
       <c r="C163" t="inlineStr"/>
       <c r="D163" t="n">
-        <v>8197</v>
+        <v>8192</v>
       </c>
       <c r="E163" t="inlineStr"/>
       <c r="F163" t="inlineStr"/>
@@ -2257,7 +2257,7 @@
       <c r="B164" t="inlineStr"/>
       <c r="C164" t="inlineStr"/>
       <c r="D164" t="n">
-        <v>8192</v>
+        <v>8201</v>
       </c>
       <c r="E164" t="inlineStr"/>
       <c r="F164" t="inlineStr"/>
@@ -2290,7 +2290,7 @@
       <c r="B167" t="inlineStr"/>
       <c r="C167" t="inlineStr"/>
       <c r="D167" t="n">
-        <v>8195</v>
+        <v>6918</v>
       </c>
       <c r="E167" t="inlineStr"/>
       <c r="F167" t="inlineStr"/>
@@ -2301,7 +2301,7 @@
       <c r="B168" t="inlineStr"/>
       <c r="C168" t="inlineStr"/>
       <c r="D168" t="n">
-        <v>8195</v>
+        <v>8192</v>
       </c>
       <c r="E168" t="inlineStr"/>
       <c r="F168" t="inlineStr"/>
@@ -2312,7 +2312,7 @@
       <c r="B169" t="inlineStr"/>
       <c r="C169" t="inlineStr"/>
       <c r="D169" t="n">
-        <v>8200</v>
+        <v>8053</v>
       </c>
       <c r="E169" t="inlineStr"/>
       <c r="F169" t="inlineStr"/>
@@ -2323,7 +2323,7 @@
       <c r="B170" t="inlineStr"/>
       <c r="C170" t="inlineStr"/>
       <c r="D170" t="n">
-        <v>8099</v>
+        <v>8192</v>
       </c>
       <c r="E170" t="inlineStr"/>
       <c r="F170" t="inlineStr"/>
@@ -2334,7 +2334,7 @@
       <c r="B171" t="inlineStr"/>
       <c r="C171" t="inlineStr"/>
       <c r="D171" t="n">
-        <v>8203</v>
+        <v>8192</v>
       </c>
       <c r="E171" t="inlineStr"/>
       <c r="F171" t="inlineStr"/>
@@ -2345,7 +2345,7 @@
       <c r="B172" t="inlineStr"/>
       <c r="C172" t="inlineStr"/>
       <c r="D172" t="n">
-        <v>8203</v>
+        <v>8192</v>
       </c>
       <c r="E172" t="inlineStr"/>
       <c r="F172" t="inlineStr"/>
@@ -2367,7 +2367,7 @@
       <c r="B174" t="inlineStr"/>
       <c r="C174" t="inlineStr"/>
       <c r="D174" t="n">
-        <v>8192</v>
+        <v>8198</v>
       </c>
       <c r="E174" t="inlineStr"/>
       <c r="F174" t="inlineStr"/>
@@ -2389,7 +2389,7 @@
       <c r="B176" t="inlineStr"/>
       <c r="C176" t="inlineStr"/>
       <c r="D176" t="n">
-        <v>8202</v>
+        <v>8192</v>
       </c>
       <c r="E176" t="inlineStr"/>
       <c r="F176" t="inlineStr"/>
@@ -2411,7 +2411,7 @@
       <c r="B178" t="inlineStr"/>
       <c r="C178" t="inlineStr"/>
       <c r="D178" t="n">
-        <v>8197</v>
+        <v>8192</v>
       </c>
       <c r="E178" t="inlineStr"/>
       <c r="F178" t="inlineStr"/>
@@ -2422,7 +2422,7 @@
       <c r="B179" t="inlineStr"/>
       <c r="C179" t="inlineStr"/>
       <c r="D179" t="n">
-        <v>7397</v>
+        <v>8192</v>
       </c>
       <c r="E179" t="inlineStr"/>
       <c r="F179" t="inlineStr"/>
@@ -2433,7 +2433,7 @@
       <c r="B180" t="inlineStr"/>
       <c r="C180" t="inlineStr"/>
       <c r="D180" t="n">
-        <v>7428</v>
+        <v>8201</v>
       </c>
       <c r="E180" t="inlineStr"/>
       <c r="F180" t="inlineStr"/>
@@ -2455,7 +2455,7 @@
       <c r="B182" t="inlineStr"/>
       <c r="C182" t="inlineStr"/>
       <c r="D182" t="n">
-        <v>8201</v>
+        <v>8203</v>
       </c>
       <c r="E182" t="inlineStr"/>
       <c r="F182" t="inlineStr"/>
@@ -2466,7 +2466,7 @@
       <c r="B183" t="inlineStr"/>
       <c r="C183" t="inlineStr"/>
       <c r="D183" t="n">
-        <v>8196</v>
+        <v>8192</v>
       </c>
       <c r="E183" t="inlineStr"/>
       <c r="F183" t="inlineStr"/>
@@ -2477,7 +2477,7 @@
       <c r="B184" t="inlineStr"/>
       <c r="C184" t="inlineStr"/>
       <c r="D184" t="n">
-        <v>8192</v>
+        <v>7823</v>
       </c>
       <c r="E184" t="inlineStr"/>
       <c r="F184" t="inlineStr"/>
@@ -2488,7 +2488,7 @@
       <c r="B185" t="inlineStr"/>
       <c r="C185" t="inlineStr"/>
       <c r="D185" t="n">
-        <v>8201</v>
+        <v>7779</v>
       </c>
       <c r="E185" t="inlineStr"/>
       <c r="F185" t="inlineStr"/>
@@ -2499,7 +2499,7 @@
       <c r="B186" t="inlineStr"/>
       <c r="C186" t="inlineStr"/>
       <c r="D186" t="n">
-        <v>8192</v>
+        <v>7634</v>
       </c>
       <c r="E186" t="inlineStr"/>
       <c r="F186" t="inlineStr"/>
@@ -2510,7 +2510,7 @@
       <c r="B187" t="inlineStr"/>
       <c r="C187" t="inlineStr"/>
       <c r="D187" t="n">
-        <v>8192</v>
+        <v>8202</v>
       </c>
       <c r="E187" t="inlineStr"/>
       <c r="F187" t="inlineStr"/>
@@ -2521,7 +2521,7 @@
       <c r="B188" t="inlineStr"/>
       <c r="C188" t="inlineStr"/>
       <c r="D188" t="n">
-        <v>8198</v>
+        <v>8192</v>
       </c>
       <c r="E188" t="inlineStr"/>
       <c r="F188" t="inlineStr"/>
@@ -2576,7 +2576,7 @@
       <c r="B193" t="inlineStr"/>
       <c r="C193" t="inlineStr"/>
       <c r="D193" t="n">
-        <v>6575</v>
+        <v>8192</v>
       </c>
       <c r="E193" t="inlineStr"/>
       <c r="F193" t="inlineStr"/>
@@ -2587,7 +2587,7 @@
       <c r="B194" t="inlineStr"/>
       <c r="C194" t="inlineStr"/>
       <c r="D194" t="n">
-        <v>8192</v>
+        <v>6975</v>
       </c>
       <c r="E194" t="inlineStr"/>
       <c r="F194" t="inlineStr"/>
@@ -2598,7 +2598,7 @@
       <c r="B195" t="inlineStr"/>
       <c r="C195" t="inlineStr"/>
       <c r="D195" t="n">
-        <v>8200</v>
+        <v>7699</v>
       </c>
       <c r="E195" t="inlineStr"/>
       <c r="F195" t="inlineStr"/>
@@ -2620,7 +2620,7 @@
       <c r="B197" t="inlineStr"/>
       <c r="C197" t="inlineStr"/>
       <c r="D197" t="n">
-        <v>8192</v>
+        <v>8195</v>
       </c>
       <c r="E197" t="inlineStr"/>
       <c r="F197" t="inlineStr"/>
@@ -2631,7 +2631,7 @@
       <c r="B198" t="inlineStr"/>
       <c r="C198" t="inlineStr"/>
       <c r="D198" t="n">
-        <v>8204</v>
+        <v>8197</v>
       </c>
       <c r="E198" t="inlineStr"/>
       <c r="F198" t="inlineStr"/>
@@ -2653,7 +2653,7 @@
       <c r="B200" t="inlineStr"/>
       <c r="C200" t="inlineStr"/>
       <c r="D200" t="n">
-        <v>8192</v>
+        <v>8201</v>
       </c>
       <c r="E200" t="inlineStr"/>
       <c r="F200" t="inlineStr"/>
@@ -2664,7 +2664,7 @@
       <c r="B201" t="inlineStr"/>
       <c r="C201" t="inlineStr"/>
       <c r="D201" t="n">
-        <v>8195</v>
+        <v>7528</v>
       </c>
       <c r="E201" t="inlineStr"/>
       <c r="F201" t="inlineStr"/>
@@ -2687,7 +2687,7 @@
       <c r="C203" t="inlineStr"/>
       <c r="D203" t="inlineStr"/>
       <c r="E203" t="n">
-        <v>7791</v>
+        <v>6572</v>
       </c>
       <c r="F203" t="inlineStr"/>
       <c r="G203" t="inlineStr"/>
@@ -2698,7 +2698,7 @@
       <c r="C204" t="inlineStr"/>
       <c r="D204" t="inlineStr"/>
       <c r="E204" t="n">
-        <v>8192</v>
+        <v>8200</v>
       </c>
       <c r="F204" t="inlineStr"/>
       <c r="G204" t="inlineStr"/>
@@ -2709,7 +2709,7 @@
       <c r="C205" t="inlineStr"/>
       <c r="D205" t="inlineStr"/>
       <c r="E205" t="n">
-        <v>7378</v>
+        <v>6653</v>
       </c>
       <c r="F205" t="inlineStr"/>
       <c r="G205" t="inlineStr"/>
@@ -2720,7 +2720,7 @@
       <c r="C206" t="inlineStr"/>
       <c r="D206" t="inlineStr"/>
       <c r="E206" t="n">
-        <v>7676</v>
+        <v>8192</v>
       </c>
       <c r="F206" t="inlineStr"/>
       <c r="G206" t="inlineStr"/>
@@ -2731,7 +2731,7 @@
       <c r="C207" t="inlineStr"/>
       <c r="D207" t="inlineStr"/>
       <c r="E207" t="n">
-        <v>8198</v>
+        <v>8192</v>
       </c>
       <c r="F207" t="inlineStr"/>
       <c r="G207" t="inlineStr"/>
@@ -2742,7 +2742,7 @@
       <c r="C208" t="inlineStr"/>
       <c r="D208" t="inlineStr"/>
       <c r="E208" t="n">
-        <v>8198</v>
+        <v>8192</v>
       </c>
       <c r="F208" t="inlineStr"/>
       <c r="G208" t="inlineStr"/>
@@ -2753,7 +2753,7 @@
       <c r="C209" t="inlineStr"/>
       <c r="D209" t="inlineStr"/>
       <c r="E209" t="n">
-        <v>7112</v>
+        <v>8035</v>
       </c>
       <c r="F209" t="inlineStr"/>
       <c r="G209" t="inlineStr"/>
@@ -2764,7 +2764,7 @@
       <c r="C210" t="inlineStr"/>
       <c r="D210" t="inlineStr"/>
       <c r="E210" t="n">
-        <v>8219</v>
+        <v>8212</v>
       </c>
       <c r="F210" t="inlineStr"/>
       <c r="G210" t="inlineStr"/>
@@ -2775,7 +2775,7 @@
       <c r="C211" t="inlineStr"/>
       <c r="D211" t="inlineStr"/>
       <c r="E211" t="n">
-        <v>8192</v>
+        <v>8198</v>
       </c>
       <c r="F211" t="inlineStr"/>
       <c r="G211" t="inlineStr"/>
@@ -2797,7 +2797,7 @@
       <c r="C213" t="inlineStr"/>
       <c r="D213" t="inlineStr"/>
       <c r="E213" t="n">
-        <v>7603</v>
+        <v>8198</v>
       </c>
       <c r="F213" t="inlineStr"/>
       <c r="G213" t="inlineStr"/>
@@ -2808,7 +2808,7 @@
       <c r="C214" t="inlineStr"/>
       <c r="D214" t="inlineStr"/>
       <c r="E214" t="n">
-        <v>8192</v>
+        <v>7202</v>
       </c>
       <c r="F214" t="inlineStr"/>
       <c r="G214" t="inlineStr"/>
@@ -2819,7 +2819,7 @@
       <c r="C215" t="inlineStr"/>
       <c r="D215" t="inlineStr"/>
       <c r="E215" t="n">
-        <v>8213</v>
+        <v>8179</v>
       </c>
       <c r="F215" t="inlineStr"/>
       <c r="G215" t="inlineStr"/>
@@ -2830,7 +2830,7 @@
       <c r="C216" t="inlineStr"/>
       <c r="D216" t="inlineStr"/>
       <c r="E216" t="n">
-        <v>8192</v>
+        <v>8202</v>
       </c>
       <c r="F216" t="inlineStr"/>
       <c r="G216" t="inlineStr"/>
@@ -2852,7 +2852,7 @@
       <c r="C218" t="inlineStr"/>
       <c r="D218" t="inlineStr"/>
       <c r="E218" t="n">
-        <v>8192</v>
+        <v>8123</v>
       </c>
       <c r="F218" t="inlineStr"/>
       <c r="G218" t="inlineStr"/>
@@ -2874,7 +2874,7 @@
       <c r="C220" t="inlineStr"/>
       <c r="D220" t="inlineStr"/>
       <c r="E220" t="n">
-        <v>7668</v>
+        <v>7723</v>
       </c>
       <c r="F220" t="inlineStr"/>
       <c r="G220" t="inlineStr"/>
@@ -2885,7 +2885,7 @@
       <c r="C221" t="inlineStr"/>
       <c r="D221" t="inlineStr"/>
       <c r="E221" t="n">
-        <v>8192</v>
+        <v>7025</v>
       </c>
       <c r="F221" t="inlineStr"/>
       <c r="G221" t="inlineStr"/>
@@ -2896,7 +2896,7 @@
       <c r="C222" t="inlineStr"/>
       <c r="D222" t="inlineStr"/>
       <c r="E222" t="n">
-        <v>6821</v>
+        <v>8192</v>
       </c>
       <c r="F222" t="inlineStr"/>
       <c r="G222" t="inlineStr"/>
@@ -2907,7 +2907,7 @@
       <c r="C223" t="inlineStr"/>
       <c r="D223" t="inlineStr"/>
       <c r="E223" t="n">
-        <v>8198</v>
+        <v>8192</v>
       </c>
       <c r="F223" t="inlineStr"/>
       <c r="G223" t="inlineStr"/>
@@ -2918,7 +2918,7 @@
       <c r="C224" t="inlineStr"/>
       <c r="D224" t="inlineStr"/>
       <c r="E224" t="n">
-        <v>8192</v>
+        <v>8208</v>
       </c>
       <c r="F224" t="inlineStr"/>
       <c r="G224" t="inlineStr"/>
@@ -2929,7 +2929,7 @@
       <c r="C225" t="inlineStr"/>
       <c r="D225" t="inlineStr"/>
       <c r="E225" t="n">
-        <v>8198</v>
+        <v>7149</v>
       </c>
       <c r="F225" t="inlineStr"/>
       <c r="G225" t="inlineStr"/>
@@ -2940,7 +2940,7 @@
       <c r="C226" t="inlineStr"/>
       <c r="D226" t="inlineStr"/>
       <c r="E226" t="n">
-        <v>7629</v>
+        <v>8192</v>
       </c>
       <c r="F226" t="inlineStr"/>
       <c r="G226" t="inlineStr"/>
@@ -2951,7 +2951,7 @@
       <c r="C227" t="inlineStr"/>
       <c r="D227" t="inlineStr"/>
       <c r="E227" t="n">
-        <v>8144</v>
+        <v>7157</v>
       </c>
       <c r="F227" t="inlineStr"/>
       <c r="G227" t="inlineStr"/>
@@ -2962,7 +2962,7 @@
       <c r="C228" t="inlineStr"/>
       <c r="D228" t="inlineStr"/>
       <c r="E228" t="n">
-        <v>8078</v>
+        <v>8207</v>
       </c>
       <c r="F228" t="inlineStr"/>
       <c r="G228" t="inlineStr"/>
@@ -2973,7 +2973,7 @@
       <c r="C229" t="inlineStr"/>
       <c r="D229" t="inlineStr"/>
       <c r="E229" t="n">
-        <v>8192</v>
+        <v>7157</v>
       </c>
       <c r="F229" t="inlineStr"/>
       <c r="G229" t="inlineStr"/>
@@ -2984,7 +2984,7 @@
       <c r="C230" t="inlineStr"/>
       <c r="D230" t="inlineStr"/>
       <c r="E230" t="n">
-        <v>8192</v>
+        <v>7048</v>
       </c>
       <c r="F230" t="inlineStr"/>
       <c r="G230" t="inlineStr"/>
@@ -2995,7 +2995,7 @@
       <c r="C231" t="inlineStr"/>
       <c r="D231" t="inlineStr"/>
       <c r="E231" t="n">
-        <v>8051</v>
+        <v>7871</v>
       </c>
       <c r="F231" t="inlineStr"/>
       <c r="G231" t="inlineStr"/>
@@ -3006,7 +3006,7 @@
       <c r="C232" t="inlineStr"/>
       <c r="D232" t="inlineStr"/>
       <c r="E232" t="n">
-        <v>8201</v>
+        <v>8192</v>
       </c>
       <c r="F232" t="inlineStr"/>
       <c r="G232" t="inlineStr"/>
@@ -3017,7 +3017,7 @@
       <c r="C233" t="inlineStr"/>
       <c r="D233" t="inlineStr"/>
       <c r="E233" t="n">
-        <v>8192</v>
+        <v>7513</v>
       </c>
       <c r="F233" t="inlineStr"/>
       <c r="G233" t="inlineStr"/>
@@ -3028,7 +3028,7 @@
       <c r="C234" t="inlineStr"/>
       <c r="D234" t="inlineStr"/>
       <c r="E234" t="n">
-        <v>8209</v>
+        <v>8192</v>
       </c>
       <c r="F234" t="inlineStr"/>
       <c r="G234" t="inlineStr"/>
@@ -3039,7 +3039,7 @@
       <c r="C235" t="inlineStr"/>
       <c r="D235" t="inlineStr"/>
       <c r="E235" t="n">
-        <v>8194</v>
+        <v>7821</v>
       </c>
       <c r="F235" t="inlineStr"/>
       <c r="G235" t="inlineStr"/>
@@ -3050,7 +3050,7 @@
       <c r="C236" t="inlineStr"/>
       <c r="D236" t="inlineStr"/>
       <c r="E236" t="n">
-        <v>8192</v>
+        <v>8227</v>
       </c>
       <c r="F236" t="inlineStr"/>
       <c r="G236" t="inlineStr"/>
@@ -3061,7 +3061,7 @@
       <c r="C237" t="inlineStr"/>
       <c r="D237" t="inlineStr"/>
       <c r="E237" t="n">
-        <v>7937</v>
+        <v>7523</v>
       </c>
       <c r="F237" t="inlineStr"/>
       <c r="G237" t="inlineStr"/>
@@ -3072,7 +3072,7 @@
       <c r="C238" t="inlineStr"/>
       <c r="D238" t="inlineStr"/>
       <c r="E238" t="n">
-        <v>8162</v>
+        <v>6655</v>
       </c>
       <c r="F238" t="inlineStr"/>
       <c r="G238" t="inlineStr"/>
@@ -3083,7 +3083,7 @@
       <c r="C239" t="inlineStr"/>
       <c r="D239" t="inlineStr"/>
       <c r="E239" t="n">
-        <v>8036</v>
+        <v>8192</v>
       </c>
       <c r="F239" t="inlineStr"/>
       <c r="G239" t="inlineStr"/>
@@ -3094,7 +3094,7 @@
       <c r="C240" t="inlineStr"/>
       <c r="D240" t="inlineStr"/>
       <c r="E240" t="n">
-        <v>6077</v>
+        <v>7131</v>
       </c>
       <c r="F240" t="inlineStr"/>
       <c r="G240" t="inlineStr"/>
@@ -3105,7 +3105,7 @@
       <c r="C241" t="inlineStr"/>
       <c r="D241" t="inlineStr"/>
       <c r="E241" t="n">
-        <v>8071</v>
+        <v>6092</v>
       </c>
       <c r="F241" t="inlineStr"/>
       <c r="G241" t="inlineStr"/>
@@ -3116,7 +3116,7 @@
       <c r="C242" t="inlineStr"/>
       <c r="D242" t="inlineStr"/>
       <c r="E242" t="n">
-        <v>7260</v>
+        <v>8200</v>
       </c>
       <c r="F242" t="inlineStr"/>
       <c r="G242" t="inlineStr"/>
@@ -3127,7 +3127,7 @@
       <c r="C243" t="inlineStr"/>
       <c r="D243" t="inlineStr"/>
       <c r="E243" t="n">
-        <v>7555</v>
+        <v>6457</v>
       </c>
       <c r="F243" t="inlineStr"/>
       <c r="G243" t="inlineStr"/>
@@ -3138,7 +3138,7 @@
       <c r="C244" t="inlineStr"/>
       <c r="D244" t="inlineStr"/>
       <c r="E244" t="n">
-        <v>7949</v>
+        <v>8200</v>
       </c>
       <c r="F244" t="inlineStr"/>
       <c r="G244" t="inlineStr"/>
@@ -3149,7 +3149,7 @@
       <c r="C245" t="inlineStr"/>
       <c r="D245" t="inlineStr"/>
       <c r="E245" t="n">
-        <v>8192</v>
+        <v>8198</v>
       </c>
       <c r="F245" t="inlineStr"/>
       <c r="G245" t="inlineStr"/>
@@ -3160,7 +3160,7 @@
       <c r="C246" t="inlineStr"/>
       <c r="D246" t="inlineStr"/>
       <c r="E246" t="n">
-        <v>8198</v>
+        <v>8204</v>
       </c>
       <c r="F246" t="inlineStr"/>
       <c r="G246" t="inlineStr"/>
@@ -3171,7 +3171,7 @@
       <c r="C247" t="inlineStr"/>
       <c r="D247" t="inlineStr"/>
       <c r="E247" t="n">
-        <v>8205</v>
+        <v>8192</v>
       </c>
       <c r="F247" t="inlineStr"/>
       <c r="G247" t="inlineStr"/>
@@ -3182,7 +3182,7 @@
       <c r="C248" t="inlineStr"/>
       <c r="D248" t="inlineStr"/>
       <c r="E248" t="n">
-        <v>8192</v>
+        <v>7892</v>
       </c>
       <c r="F248" t="inlineStr"/>
       <c r="G248" t="inlineStr"/>
@@ -3193,7 +3193,7 @@
       <c r="C249" t="inlineStr"/>
       <c r="D249" t="inlineStr"/>
       <c r="E249" t="n">
-        <v>8217</v>
+        <v>8214</v>
       </c>
       <c r="F249" t="inlineStr"/>
       <c r="G249" t="inlineStr"/>
@@ -3215,7 +3215,7 @@
       <c r="C251" t="inlineStr"/>
       <c r="D251" t="inlineStr"/>
       <c r="E251" t="n">
-        <v>8192</v>
+        <v>7618</v>
       </c>
       <c r="F251" t="inlineStr"/>
       <c r="G251" t="inlineStr"/>
@@ -3227,7 +3227,7 @@
       <c r="D252" t="inlineStr"/>
       <c r="E252" t="inlineStr"/>
       <c r="F252" t="n">
-        <v>5984</v>
+        <v>4065</v>
       </c>
       <c r="G252" t="inlineStr"/>
     </row>
@@ -3238,7 +3238,7 @@
       <c r="D253" t="inlineStr"/>
       <c r="E253" t="inlineStr"/>
       <c r="F253" t="n">
-        <v>6583</v>
+        <v>6081</v>
       </c>
       <c r="G253" t="inlineStr"/>
     </row>
@@ -3249,7 +3249,7 @@
       <c r="D254" t="inlineStr"/>
       <c r="E254" t="inlineStr"/>
       <c r="F254" t="n">
-        <v>6107</v>
+        <v>5885</v>
       </c>
       <c r="G254" t="inlineStr"/>
     </row>
@@ -3260,7 +3260,7 @@
       <c r="D255" t="inlineStr"/>
       <c r="E255" t="inlineStr"/>
       <c r="F255" t="n">
-        <v>4022</v>
+        <v>5988</v>
       </c>
       <c r="G255" t="inlineStr"/>
     </row>
@@ -3271,7 +3271,7 @@
       <c r="D256" t="inlineStr"/>
       <c r="E256" t="inlineStr"/>
       <c r="F256" t="n">
-        <v>4082</v>
+        <v>6139</v>
       </c>
       <c r="G256" t="inlineStr"/>
     </row>
@@ -3282,7 +3282,7 @@
       <c r="D257" t="inlineStr"/>
       <c r="E257" t="inlineStr"/>
       <c r="F257" t="n">
-        <v>6074</v>
+        <v>6577</v>
       </c>
       <c r="G257" t="inlineStr"/>
     </row>
@@ -3293,7 +3293,7 @@
       <c r="D258" t="inlineStr"/>
       <c r="E258" t="inlineStr"/>
       <c r="F258" t="n">
-        <v>8308</v>
+        <v>4092</v>
       </c>
       <c r="G258" t="inlineStr"/>
     </row>
@@ -3304,7 +3304,7 @@
       <c r="D259" t="inlineStr"/>
       <c r="E259" t="inlineStr"/>
       <c r="F259" t="n">
-        <v>4075</v>
+        <v>6588</v>
       </c>
       <c r="G259" t="inlineStr"/>
     </row>
@@ -3315,7 +3315,7 @@
       <c r="D260" t="inlineStr"/>
       <c r="E260" t="inlineStr"/>
       <c r="F260" t="n">
-        <v>6318</v>
+        <v>6399</v>
       </c>
       <c r="G260" t="inlineStr"/>
     </row>
@@ -3326,7 +3326,7 @@
       <c r="D261" t="inlineStr"/>
       <c r="E261" t="inlineStr"/>
       <c r="F261" t="n">
-        <v>8429</v>
+        <v>6105</v>
       </c>
       <c r="G261" t="inlineStr"/>
     </row>
@@ -3337,7 +3337,7 @@
       <c r="D262" t="inlineStr"/>
       <c r="E262" t="inlineStr"/>
       <c r="F262" t="n">
-        <v>6280</v>
+        <v>4003</v>
       </c>
       <c r="G262" t="inlineStr"/>
     </row>
@@ -3348,7 +3348,7 @@
       <c r="D263" t="inlineStr"/>
       <c r="E263" t="inlineStr"/>
       <c r="F263" t="n">
-        <v>8293</v>
+        <v>5634</v>
       </c>
       <c r="G263" t="inlineStr"/>
     </row>
@@ -3359,7 +3359,7 @@
       <c r="D264" t="inlineStr"/>
       <c r="E264" t="inlineStr"/>
       <c r="F264" t="n">
-        <v>6015</v>
+        <v>6094</v>
       </c>
       <c r="G264" t="inlineStr"/>
     </row>
@@ -3370,7 +3370,7 @@
       <c r="D265" t="inlineStr"/>
       <c r="E265" t="inlineStr"/>
       <c r="F265" t="n">
-        <v>6321</v>
+        <v>5885</v>
       </c>
       <c r="G265" t="inlineStr"/>
     </row>
@@ -3381,7 +3381,7 @@
       <c r="D266" t="inlineStr"/>
       <c r="E266" t="inlineStr"/>
       <c r="F266" t="n">
-        <v>8250</v>
+        <v>4015</v>
       </c>
       <c r="G266" t="inlineStr"/>
     </row>
@@ -3392,7 +3392,7 @@
       <c r="D267" t="inlineStr"/>
       <c r="E267" t="inlineStr"/>
       <c r="F267" t="n">
-        <v>6408</v>
+        <v>4097</v>
       </c>
       <c r="G267" t="inlineStr"/>
     </row>
@@ -3403,7 +3403,7 @@
       <c r="D268" t="inlineStr"/>
       <c r="E268" t="inlineStr"/>
       <c r="F268" t="n">
-        <v>8290</v>
+        <v>6142</v>
       </c>
       <c r="G268" t="inlineStr"/>
     </row>
@@ -3414,7 +3414,7 @@
       <c r="D269" t="inlineStr"/>
       <c r="E269" t="inlineStr"/>
       <c r="F269" t="n">
-        <v>6078</v>
+        <v>5832</v>
       </c>
       <c r="G269" t="inlineStr"/>
     </row>
@@ -3425,7 +3425,7 @@
       <c r="D270" t="inlineStr"/>
       <c r="E270" t="inlineStr"/>
       <c r="F270" t="n">
-        <v>5979</v>
+        <v>6062</v>
       </c>
       <c r="G270" t="inlineStr"/>
     </row>
@@ -3436,7 +3436,7 @@
       <c r="D271" t="inlineStr"/>
       <c r="E271" t="inlineStr"/>
       <c r="F271" t="n">
-        <v>5890</v>
+        <v>6861</v>
       </c>
       <c r="G271" t="inlineStr"/>
     </row>
@@ -3447,7 +3447,7 @@
       <c r="D272" t="inlineStr"/>
       <c r="E272" t="inlineStr"/>
       <c r="F272" t="n">
-        <v>6022</v>
+        <v>5608</v>
       </c>
       <c r="G272" t="inlineStr"/>
     </row>
@@ -3458,7 +3458,7 @@
       <c r="D273" t="inlineStr"/>
       <c r="E273" t="inlineStr"/>
       <c r="F273" t="n">
-        <v>4066</v>
+        <v>6172</v>
       </c>
       <c r="G273" t="inlineStr"/>
     </row>
@@ -3469,7 +3469,7 @@
       <c r="D274" t="inlineStr"/>
       <c r="E274" t="inlineStr"/>
       <c r="F274" t="n">
-        <v>4081</v>
+        <v>8336</v>
       </c>
       <c r="G274" t="inlineStr"/>
     </row>
@@ -3480,7 +3480,7 @@
       <c r="D275" t="inlineStr"/>
       <c r="E275" t="inlineStr"/>
       <c r="F275" t="n">
-        <v>6731</v>
+        <v>4057</v>
       </c>
       <c r="G275" t="inlineStr"/>
     </row>
@@ -3491,7 +3491,7 @@
       <c r="D276" t="inlineStr"/>
       <c r="E276" t="inlineStr"/>
       <c r="F276" t="n">
-        <v>8237</v>
+        <v>6143</v>
       </c>
       <c r="G276" t="inlineStr"/>
     </row>
@@ -3502,7 +3502,7 @@
       <c r="D277" t="inlineStr"/>
       <c r="E277" t="inlineStr"/>
       <c r="F277" t="n">
-        <v>4095</v>
+        <v>6065</v>
       </c>
       <c r="G277" t="inlineStr"/>
     </row>
@@ -3513,7 +3513,7 @@
       <c r="D278" t="inlineStr"/>
       <c r="E278" t="inlineStr"/>
       <c r="F278" t="n">
-        <v>5881</v>
+        <v>6458</v>
       </c>
       <c r="G278" t="inlineStr"/>
     </row>
@@ -3524,7 +3524,7 @@
       <c r="D279" t="inlineStr"/>
       <c r="E279" t="inlineStr"/>
       <c r="F279" t="n">
-        <v>6127</v>
+        <v>6395</v>
       </c>
       <c r="G279" t="inlineStr"/>
     </row>
@@ -3535,7 +3535,7 @@
       <c r="D280" t="inlineStr"/>
       <c r="E280" t="inlineStr"/>
       <c r="F280" t="n">
-        <v>6550</v>
+        <v>5889</v>
       </c>
       <c r="G280" t="inlineStr"/>
     </row>
@@ -3546,7 +3546,7 @@
       <c r="D281" t="inlineStr"/>
       <c r="E281" t="inlineStr"/>
       <c r="F281" t="n">
-        <v>4014</v>
+        <v>8334</v>
       </c>
       <c r="G281" t="inlineStr"/>
     </row>
@@ -3557,7 +3557,7 @@
       <c r="D282" t="inlineStr"/>
       <c r="E282" t="inlineStr"/>
       <c r="F282" t="n">
-        <v>6138</v>
+        <v>5108</v>
       </c>
       <c r="G282" t="inlineStr"/>
     </row>
@@ -3568,7 +3568,7 @@
       <c r="D283" t="inlineStr"/>
       <c r="E283" t="inlineStr"/>
       <c r="F283" t="n">
-        <v>8275</v>
+        <v>6076</v>
       </c>
       <c r="G283" t="inlineStr"/>
     </row>
@@ -3579,7 +3579,7 @@
       <c r="D284" t="inlineStr"/>
       <c r="E284" t="inlineStr"/>
       <c r="F284" t="n">
-        <v>5927</v>
+        <v>6080</v>
       </c>
       <c r="G284" t="inlineStr"/>
     </row>
@@ -3590,7 +3590,7 @@
       <c r="D285" t="inlineStr"/>
       <c r="E285" t="inlineStr"/>
       <c r="F285" t="n">
-        <v>8205</v>
+        <v>7425</v>
       </c>
       <c r="G285" t="inlineStr"/>
     </row>
@@ -3601,7 +3601,7 @@
       <c r="D286" t="inlineStr"/>
       <c r="E286" t="inlineStr"/>
       <c r="F286" t="n">
-        <v>8329</v>
+        <v>5105</v>
       </c>
       <c r="G286" t="inlineStr"/>
     </row>
@@ -3612,7 +3612,7 @@
       <c r="D287" t="inlineStr"/>
       <c r="E287" t="inlineStr"/>
       <c r="F287" t="n">
-        <v>6137</v>
+        <v>6129</v>
       </c>
       <c r="G287" t="inlineStr"/>
     </row>
@@ -3623,7 +3623,7 @@
       <c r="D288" t="inlineStr"/>
       <c r="E288" t="inlineStr"/>
       <c r="F288" t="n">
-        <v>4090</v>
+        <v>4091</v>
       </c>
       <c r="G288" t="inlineStr"/>
     </row>
@@ -3634,7 +3634,7 @@
       <c r="D289" t="inlineStr"/>
       <c r="E289" t="inlineStr"/>
       <c r="F289" t="n">
-        <v>6081</v>
+        <v>6274</v>
       </c>
       <c r="G289" t="inlineStr"/>
     </row>
@@ -3645,7 +3645,7 @@
       <c r="D290" t="inlineStr"/>
       <c r="E290" t="inlineStr"/>
       <c r="F290" t="n">
-        <v>5920</v>
+        <v>6098</v>
       </c>
       <c r="G290" t="inlineStr"/>
     </row>
@@ -3656,7 +3656,7 @@
       <c r="D291" t="inlineStr"/>
       <c r="E291" t="inlineStr"/>
       <c r="F291" t="n">
-        <v>5874</v>
+        <v>6053</v>
       </c>
       <c r="G291" t="inlineStr"/>
     </row>
@@ -3667,7 +3667,7 @@
       <c r="D292" t="inlineStr"/>
       <c r="E292" t="inlineStr"/>
       <c r="F292" t="n">
-        <v>5887</v>
+        <v>6339</v>
       </c>
       <c r="G292" t="inlineStr"/>
     </row>
@@ -3678,7 +3678,7 @@
       <c r="D293" t="inlineStr"/>
       <c r="E293" t="inlineStr"/>
       <c r="F293" t="n">
-        <v>6328</v>
+        <v>6100</v>
       </c>
       <c r="G293" t="inlineStr"/>
     </row>
@@ -3689,7 +3689,7 @@
       <c r="D294" t="inlineStr"/>
       <c r="E294" t="inlineStr"/>
       <c r="F294" t="n">
-        <v>5616</v>
+        <v>6304</v>
       </c>
       <c r="G294" t="inlineStr"/>
     </row>
@@ -3700,7 +3700,7 @@
       <c r="D295" t="inlineStr"/>
       <c r="E295" t="inlineStr"/>
       <c r="F295" t="n">
-        <v>6072</v>
+        <v>5762</v>
       </c>
       <c r="G295" t="inlineStr"/>
     </row>
@@ -3711,7 +3711,7 @@
       <c r="D296" t="inlineStr"/>
       <c r="E296" t="inlineStr"/>
       <c r="F296" t="n">
-        <v>6120</v>
+        <v>6168</v>
       </c>
       <c r="G296" t="inlineStr"/>
     </row>
@@ -3722,7 +3722,7 @@
       <c r="D297" t="inlineStr"/>
       <c r="E297" t="inlineStr"/>
       <c r="F297" t="n">
-        <v>6000</v>
+        <v>5984</v>
       </c>
       <c r="G297" t="inlineStr"/>
     </row>
@@ -3733,7 +3733,7 @@
       <c r="D298" t="inlineStr"/>
       <c r="E298" t="inlineStr"/>
       <c r="F298" t="n">
-        <v>6133</v>
+        <v>6236</v>
       </c>
       <c r="G298" t="inlineStr"/>
     </row>
@@ -3744,7 +3744,7 @@
       <c r="D299" t="inlineStr"/>
       <c r="E299" t="inlineStr"/>
       <c r="F299" t="n">
-        <v>6209</v>
+        <v>6084</v>
       </c>
       <c r="G299" t="inlineStr"/>
     </row>
@@ -3755,7 +3755,7 @@
       <c r="D300" t="inlineStr"/>
       <c r="E300" t="inlineStr"/>
       <c r="F300" t="n">
-        <v>4065</v>
+        <v>5999</v>
       </c>
       <c r="G300" t="inlineStr"/>
     </row>
@@ -3766,7 +3766,7 @@
       <c r="D301" t="inlineStr"/>
       <c r="E301" t="inlineStr"/>
       <c r="F301" t="n">
-        <v>6080</v>
+        <v>8392</v>
       </c>
       <c r="G301" t="inlineStr"/>
     </row>
@@ -3778,7 +3778,7 @@
       <c r="E302" t="inlineStr"/>
       <c r="F302" t="inlineStr"/>
       <c r="G302" t="n">
-        <v>1890</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="303">
@@ -3789,7 +3789,7 @@
       <c r="E303" t="inlineStr"/>
       <c r="F303" t="inlineStr"/>
       <c r="G303" t="n">
-        <v>2440</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="304">
@@ -3800,7 +3800,7 @@
       <c r="E304" t="inlineStr"/>
       <c r="F304" t="inlineStr"/>
       <c r="G304" t="n">
-        <v>1531</v>
+        <v>2805</v>
       </c>
     </row>
     <row r="305">
@@ -3811,7 +3811,7 @@
       <c r="E305" t="inlineStr"/>
       <c r="F305" t="inlineStr"/>
       <c r="G305" t="n">
-        <v>2972</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="306">
@@ -3822,7 +3822,7 @@
       <c r="E306" t="inlineStr"/>
       <c r="F306" t="inlineStr"/>
       <c r="G306" t="n">
-        <v>900</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="307">
@@ -3833,7 +3833,7 @@
       <c r="E307" t="inlineStr"/>
       <c r="F307" t="inlineStr"/>
       <c r="G307" t="n">
-        <v>1950</v>
+        <v>2514</v>
       </c>
     </row>
     <row r="308">
@@ -3844,7 +3844,7 @@
       <c r="E308" t="inlineStr"/>
       <c r="F308" t="inlineStr"/>
       <c r="G308" t="n">
-        <v>2763</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="309">
@@ -3855,7 +3855,7 @@
       <c r="E309" t="inlineStr"/>
       <c r="F309" t="inlineStr"/>
       <c r="G309" t="n">
-        <v>1788</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="310">
@@ -3866,7 +3866,7 @@
       <c r="E310" t="inlineStr"/>
       <c r="F310" t="inlineStr"/>
       <c r="G310" t="n">
-        <v>1519</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="311">
@@ -3877,7 +3877,7 @@
       <c r="E311" t="inlineStr"/>
       <c r="F311" t="inlineStr"/>
       <c r="G311" t="n">
-        <v>1283</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="312">
@@ -3888,7 +3888,7 @@
       <c r="E312" t="inlineStr"/>
       <c r="F312" t="inlineStr"/>
       <c r="G312" t="n">
-        <v>1935</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="313">
@@ -3899,7 +3899,7 @@
       <c r="E313" t="inlineStr"/>
       <c r="F313" t="inlineStr"/>
       <c r="G313" t="n">
-        <v>2891</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="314">
@@ -3910,7 +3910,7 @@
       <c r="E314" t="inlineStr"/>
       <c r="F314" t="inlineStr"/>
       <c r="G314" t="n">
-        <v>2003</v>
+        <v>2613</v>
       </c>
     </row>
     <row r="315">
@@ -3921,7 +3921,7 @@
       <c r="E315" t="inlineStr"/>
       <c r="F315" t="inlineStr"/>
       <c r="G315" t="n">
-        <v>1901</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="316">
@@ -3932,7 +3932,7 @@
       <c r="E316" t="inlineStr"/>
       <c r="F316" t="inlineStr"/>
       <c r="G316" t="n">
-        <v>1778</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="317">
@@ -3943,7 +3943,7 @@
       <c r="E317" t="inlineStr"/>
       <c r="F317" t="inlineStr"/>
       <c r="G317" t="n">
-        <v>1019</v>
+        <v>2740</v>
       </c>
     </row>
     <row r="318">
@@ -3954,7 +3954,7 @@
       <c r="E318" t="inlineStr"/>
       <c r="F318" t="inlineStr"/>
       <c r="G318" t="n">
-        <v>1997</v>
+        <v>5157</v>
       </c>
     </row>
     <row r="319">
@@ -3965,7 +3965,7 @@
       <c r="E319" t="inlineStr"/>
       <c r="F319" t="inlineStr"/>
       <c r="G319" t="n">
-        <v>3198</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="320">
@@ -3976,7 +3976,7 @@
       <c r="E320" t="inlineStr"/>
       <c r="F320" t="inlineStr"/>
       <c r="G320" t="n">
-        <v>1785</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="321">
@@ -3987,7 +3987,7 @@
       <c r="E321" t="inlineStr"/>
       <c r="F321" t="inlineStr"/>
       <c r="G321" t="n">
-        <v>1664</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="322">
@@ -3998,7 +3998,7 @@
       <c r="E322" t="inlineStr"/>
       <c r="F322" t="inlineStr"/>
       <c r="G322" t="n">
-        <v>2933</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="323">
@@ -4009,7 +4009,7 @@
       <c r="E323" t="inlineStr"/>
       <c r="F323" t="inlineStr"/>
       <c r="G323" t="n">
-        <v>1883</v>
+        <v>2508</v>
       </c>
     </row>
     <row r="324">
@@ -4020,7 +4020,7 @@
       <c r="E324" t="inlineStr"/>
       <c r="F324" t="inlineStr"/>
       <c r="G324" t="n">
-        <v>2847</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="325">
@@ -4031,7 +4031,7 @@
       <c r="E325" t="inlineStr"/>
       <c r="F325" t="inlineStr"/>
       <c r="G325" t="n">
-        <v>3273</v>
+        <v>2742</v>
       </c>
     </row>
     <row r="326">
@@ -4042,7 +4042,7 @@
       <c r="E326" t="inlineStr"/>
       <c r="F326" t="inlineStr"/>
       <c r="G326" t="n">
-        <v>2881</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="327">
@@ -4053,7 +4053,7 @@
       <c r="E327" t="inlineStr"/>
       <c r="F327" t="inlineStr"/>
       <c r="G327" t="n">
-        <v>1776</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="328">
@@ -4064,7 +4064,7 @@
       <c r="E328" t="inlineStr"/>
       <c r="F328" t="inlineStr"/>
       <c r="G328" t="n">
-        <v>1524</v>
+        <v>994</v>
       </c>
     </row>
     <row r="329">
@@ -4075,7 +4075,7 @@
       <c r="E329" t="inlineStr"/>
       <c r="F329" t="inlineStr"/>
       <c r="G329" t="n">
-        <v>1016</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="330">
@@ -4086,7 +4086,7 @@
       <c r="E330" t="inlineStr"/>
       <c r="F330" t="inlineStr"/>
       <c r="G330" t="n">
-        <v>4433</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="331">
@@ -4097,7 +4097,7 @@
       <c r="E331" t="inlineStr"/>
       <c r="F331" t="inlineStr"/>
       <c r="G331" t="n">
-        <v>1994</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="332">
@@ -4108,7 +4108,7 @@
       <c r="E332" t="inlineStr"/>
       <c r="F332" t="inlineStr"/>
       <c r="G332" t="n">
-        <v>3537</v>
+        <v>2735</v>
       </c>
     </row>
     <row r="333">
@@ -4119,7 +4119,7 @@
       <c r="E333" t="inlineStr"/>
       <c r="F333" t="inlineStr"/>
       <c r="G333" t="n">
-        <v>2479</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="334">
@@ -4130,7 +4130,7 @@
       <c r="E334" t="inlineStr"/>
       <c r="F334" t="inlineStr"/>
       <c r="G334" t="n">
-        <v>1657</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="335">
@@ -4141,7 +4141,7 @@
       <c r="E335" t="inlineStr"/>
       <c r="F335" t="inlineStr"/>
       <c r="G335" t="n">
-        <v>2774</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="336">
@@ -4152,7 +4152,7 @@
       <c r="E336" t="inlineStr"/>
       <c r="F336" t="inlineStr"/>
       <c r="G336" t="n">
-        <v>1517</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="337">
@@ -4163,7 +4163,7 @@
       <c r="E337" t="inlineStr"/>
       <c r="F337" t="inlineStr"/>
       <c r="G337" t="n">
-        <v>1888</v>
+        <v>2886</v>
       </c>
     </row>
     <row r="338">
@@ -4174,7 +4174,7 @@
       <c r="E338" t="inlineStr"/>
       <c r="F338" t="inlineStr"/>
       <c r="G338" t="n">
-        <v>1502</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="339">
@@ -4185,7 +4185,7 @@
       <c r="E339" t="inlineStr"/>
       <c r="F339" t="inlineStr"/>
       <c r="G339" t="n">
-        <v>1760</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="340">
@@ -4196,7 +4196,7 @@
       <c r="E340" t="inlineStr"/>
       <c r="F340" t="inlineStr"/>
       <c r="G340" t="n">
-        <v>1963</v>
+        <v>2849</v>
       </c>
     </row>
     <row r="341">
@@ -4207,7 +4207,7 @@
       <c r="E341" t="inlineStr"/>
       <c r="F341" t="inlineStr"/>
       <c r="G341" t="n">
-        <v>1770</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="342">
@@ -4218,7 +4218,7 @@
       <c r="E342" t="inlineStr"/>
       <c r="F342" t="inlineStr"/>
       <c r="G342" t="n">
-        <v>2873</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="343">
@@ -4229,7 +4229,7 @@
       <c r="E343" t="inlineStr"/>
       <c r="F343" t="inlineStr"/>
       <c r="G343" t="n">
-        <v>5122</v>
+        <v>2856</v>
       </c>
     </row>
     <row r="344">
@@ -4240,7 +4240,7 @@
       <c r="E344" t="inlineStr"/>
       <c r="F344" t="inlineStr"/>
       <c r="G344" t="n">
-        <v>1725</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="345">
@@ -4251,7 +4251,7 @@
       <c r="E345" t="inlineStr"/>
       <c r="F345" t="inlineStr"/>
       <c r="G345" t="n">
-        <v>1780</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="346">
@@ -4262,7 +4262,7 @@
       <c r="E346" t="inlineStr"/>
       <c r="F346" t="inlineStr"/>
       <c r="G346" t="n">
-        <v>7258</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="347">
@@ -4273,7 +4273,7 @@
       <c r="E347" t="inlineStr"/>
       <c r="F347" t="inlineStr"/>
       <c r="G347" t="n">
-        <v>1016</v>
+        <v>964</v>
       </c>
     </row>
     <row r="348">
@@ -4284,7 +4284,7 @@
       <c r="E348" t="inlineStr"/>
       <c r="F348" t="inlineStr"/>
       <c r="G348" t="n">
-        <v>1019</v>
+        <v>2777</v>
       </c>
     </row>
     <row r="349">
@@ -4295,7 +4295,7 @@
       <c r="E349" t="inlineStr"/>
       <c r="F349" t="inlineStr"/>
       <c r="G349" t="n">
-        <v>2509</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="350">
@@ -4306,7 +4306,7 @@
       <c r="E350" t="inlineStr"/>
       <c r="F350" t="inlineStr"/>
       <c r="G350" t="n">
-        <v>1774</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="351">
@@ -4317,7 +4317,7 @@
       <c r="E351" t="inlineStr"/>
       <c r="F351" t="inlineStr"/>
       <c r="G351" t="n">
-        <v>1728</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="352">
